--- a/data/pca/factorExposure/factorExposure_2018-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.00133159457264123</v>
+        <v>-0.002894335139250281</v>
       </c>
       <c r="C2">
-        <v>-0.00452220003735953</v>
+        <v>0.02945892491494849</v>
       </c>
       <c r="D2">
-        <v>0.02170746368979622</v>
+        <v>-0.02702251293954852</v>
       </c>
       <c r="E2">
-        <v>0.04463704007627244</v>
+        <v>-0.009979311109761947</v>
       </c>
       <c r="F2">
-        <v>0.0501813522599284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0302213113436856</v>
+      </c>
+      <c r="G2">
+        <v>0.0005835623642384746</v>
+      </c>
+      <c r="H2">
+        <v>0.01391273802458612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0669128492148662</v>
+        <v>-0.05781462471668513</v>
       </c>
       <c r="C3">
-        <v>0.003611991741846648</v>
+        <v>0.09290587249262182</v>
       </c>
       <c r="D3">
-        <v>-0.02643666251750648</v>
+        <v>-0.01000340900715028</v>
       </c>
       <c r="E3">
-        <v>0.1825455745809391</v>
+        <v>-0.05649616388323183</v>
       </c>
       <c r="F3">
-        <v>0.2236856779388871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1072065146694122</v>
+      </c>
+      <c r="G3">
+        <v>-0.04693929631627033</v>
+      </c>
+      <c r="H3">
+        <v>0.05144575691509424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03374325304244218</v>
+        <v>-0.04030441753729509</v>
       </c>
       <c r="C4">
-        <v>0.01629655185178071</v>
+        <v>0.05819018624055142</v>
       </c>
       <c r="D4">
-        <v>0.03519881681982905</v>
+        <v>-0.02029992937003382</v>
       </c>
       <c r="E4">
-        <v>0.005797378375349368</v>
+        <v>0.0015862921055779</v>
       </c>
       <c r="F4">
-        <v>0.0564750794570969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04143970359326327</v>
+      </c>
+      <c r="G4">
+        <v>-0.0358133830827255</v>
+      </c>
+      <c r="H4">
+        <v>-0.003225983642729158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.05083158047573834</v>
+        <v>-0.02289991786564169</v>
       </c>
       <c r="C6">
-        <v>0.005341149504186449</v>
+        <v>0.05705218103997793</v>
       </c>
       <c r="D6">
-        <v>0.04331979571410952</v>
+        <v>-0.01455588917692286</v>
       </c>
       <c r="E6">
-        <v>0.005512385920042035</v>
+        <v>0.002950535081549167</v>
       </c>
       <c r="F6">
-        <v>0.04206346369215707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01668999383019128</v>
+      </c>
+      <c r="G6">
+        <v>-0.01793056382264433</v>
+      </c>
+      <c r="H6">
+        <v>0.0009644731949902406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02469680651208954</v>
+        <v>-0.005554625077118437</v>
       </c>
       <c r="C7">
-        <v>0.07065549458208593</v>
+        <v>0.0308188282380668</v>
       </c>
       <c r="D7">
-        <v>0.004843654475012889</v>
+        <v>-0.01216400005532022</v>
       </c>
       <c r="E7">
-        <v>0.00389124434055323</v>
+        <v>0.01772959352736878</v>
       </c>
       <c r="F7">
-        <v>0.0141125864662707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01546334388251743</v>
+      </c>
+      <c r="G7">
+        <v>-0.06803913989782449</v>
+      </c>
+      <c r="H7">
+        <v>0.03512515837679504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01324183173522148</v>
+        <v>0.005868354523205502</v>
       </c>
       <c r="C8">
-        <v>0.01024584544264305</v>
+        <v>0.003915170360139168</v>
       </c>
       <c r="D8">
-        <v>0.0224164959022576</v>
+        <v>-0.00194493992162329</v>
       </c>
       <c r="E8">
-        <v>0.005018507212585573</v>
+        <v>-0.00436484230738817</v>
       </c>
       <c r="F8">
-        <v>0.05096967724223797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02631139389567572</v>
+      </c>
+      <c r="G8">
+        <v>-0.02151147209623773</v>
+      </c>
+      <c r="H8">
+        <v>-0.004976813005864266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02647083564602713</v>
+        <v>-0.01754903327566679</v>
       </c>
       <c r="C9">
-        <v>0.0135587908520011</v>
+        <v>0.03864488573612092</v>
       </c>
       <c r="D9">
-        <v>0.02934181132405034</v>
+        <v>-0.01432968870071014</v>
       </c>
       <c r="E9">
-        <v>0.03027857756481148</v>
+        <v>0.002617709673174199</v>
       </c>
       <c r="F9">
-        <v>0.05387545274529192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02719291129393868</v>
+      </c>
+      <c r="G9">
+        <v>-0.02270404119673662</v>
+      </c>
+      <c r="H9">
+        <v>0.01739882006020805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0540900319103431</v>
+        <v>-0.1132709159963854</v>
       </c>
       <c r="C10">
-        <v>-0.007602204622063559</v>
+        <v>-0.1682786270821487</v>
       </c>
       <c r="D10">
-        <v>-0.1584982527324444</v>
+        <v>0.02064001324204532</v>
       </c>
       <c r="E10">
-        <v>0.05475697272249948</v>
+        <v>-0.02411491589126651</v>
       </c>
       <c r="F10">
-        <v>-0.006638224302570655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01106166035092594</v>
+      </c>
+      <c r="G10">
+        <v>-0.02085670195513255</v>
+      </c>
+      <c r="H10">
+        <v>0.03763043528107691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02650050821985441</v>
+        <v>-0.02184742521576915</v>
       </c>
       <c r="C11">
-        <v>-0.00253083067900224</v>
+        <v>0.05131602650554561</v>
       </c>
       <c r="D11">
-        <v>0.04279148490481292</v>
+        <v>-2.342437254671489e-05</v>
       </c>
       <c r="E11">
-        <v>-0.004641751323919158</v>
+        <v>0.008475609005735019</v>
       </c>
       <c r="F11">
-        <v>0.02218999249795111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03574554098225731</v>
+      </c>
+      <c r="G11">
+        <v>-0.001801392363677547</v>
+      </c>
+      <c r="H11">
+        <v>0.008023107142375214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03455496681947556</v>
+        <v>-0.02377701253651632</v>
       </c>
       <c r="C12">
-        <v>0.002884927636481675</v>
+        <v>0.04595527337251373</v>
       </c>
       <c r="D12">
-        <v>0.03949422345224547</v>
+        <v>-0.004247974597669919</v>
       </c>
       <c r="E12">
-        <v>-0.01729700590901739</v>
+        <v>0.01269443727795045</v>
       </c>
       <c r="F12">
-        <v>0.003730354845587109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0138844705874873</v>
+      </c>
+      <c r="G12">
+        <v>-0.01188693478041027</v>
+      </c>
+      <c r="H12">
+        <v>0.006543376882514934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01561221703443465</v>
+        <v>-0.007247717822470932</v>
       </c>
       <c r="C13">
-        <v>-0.001902286107316217</v>
+        <v>0.02814920100876398</v>
       </c>
       <c r="D13">
-        <v>0.008718218186688971</v>
+        <v>-0.02285051567514782</v>
       </c>
       <c r="E13">
-        <v>0.02287031379999237</v>
+        <v>-0.01525503488685515</v>
       </c>
       <c r="F13">
-        <v>0.05485583102242082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0491197685132416</v>
+      </c>
+      <c r="G13">
+        <v>-0.01767856407455099</v>
+      </c>
+      <c r="H13">
+        <v>0.00631741545388319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01218604402021361</v>
+        <v>-0.001485672645395865</v>
       </c>
       <c r="C14">
-        <v>0.01543145903086524</v>
+        <v>0.01980794593609011</v>
       </c>
       <c r="D14">
-        <v>0.007551150133882504</v>
+        <v>-0.007778548610329003</v>
       </c>
       <c r="E14">
-        <v>0.002080519651700567</v>
+        <v>0.006649975072490914</v>
       </c>
       <c r="F14">
-        <v>0.04536979369161234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01042131318408528</v>
+      </c>
+      <c r="G14">
+        <v>-0.03267183661811816</v>
+      </c>
+      <c r="H14">
+        <v>0.001608580640663223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02458097668746584</v>
+        <v>-0.01970291465816685</v>
       </c>
       <c r="C16">
-        <v>0.002654459642126287</v>
+        <v>0.04119492648099468</v>
       </c>
       <c r="D16">
-        <v>0.04265490571445833</v>
+        <v>9.262833477303942e-05</v>
       </c>
       <c r="E16">
-        <v>-0.001114548492725273</v>
+        <v>0.006125735273465801</v>
       </c>
       <c r="F16">
-        <v>0.02372126318749061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02279581179343057</v>
+      </c>
+      <c r="G16">
+        <v>-0.009223794001198046</v>
+      </c>
+      <c r="H16">
+        <v>0.006771035897118606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02726585285057972</v>
+        <v>-0.02096031634287676</v>
       </c>
       <c r="C19">
-        <v>0.0007765267588102463</v>
+        <v>0.04914338719447622</v>
       </c>
       <c r="D19">
-        <v>0.03357132390308504</v>
+        <v>-0.0124482284886496</v>
       </c>
       <c r="E19">
-        <v>0.0110732421635703</v>
+        <v>-0.0193797166889985</v>
       </c>
       <c r="F19">
-        <v>0.08288672253685325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05562699563461962</v>
+      </c>
+      <c r="G19">
+        <v>-0.02906911919802002</v>
+      </c>
+      <c r="H19">
+        <v>-0.003420470044098098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000226400533151947</v>
+        <v>-0.003553791149398502</v>
       </c>
       <c r="C20">
-        <v>0.005234103967972224</v>
+        <v>0.02674360698457761</v>
       </c>
       <c r="D20">
-        <v>0.002518782088718356</v>
+        <v>-0.01175682641842401</v>
       </c>
       <c r="E20">
-        <v>0.02208398554192079</v>
+        <v>-0.01495818371823511</v>
       </c>
       <c r="F20">
-        <v>0.03085634937424838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02395833348773151</v>
+      </c>
+      <c r="G20">
+        <v>-0.01895871911688855</v>
+      </c>
+      <c r="H20">
+        <v>0.005754963105003344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03017897498466868</v>
+        <v>-0.003900234185164736</v>
       </c>
       <c r="C21">
-        <v>0.0220721769765572</v>
+        <v>0.02988495717973048</v>
       </c>
       <c r="D21">
-        <v>0.02127097635373195</v>
+        <v>-0.01482348889854127</v>
       </c>
       <c r="E21">
-        <v>0.007024107039225758</v>
+        <v>-0.01418882805646556</v>
       </c>
       <c r="F21">
-        <v>0.03781458235922233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03661063844053791</v>
+      </c>
+      <c r="G21">
+        <v>-0.03928518063617784</v>
+      </c>
+      <c r="H21">
+        <v>0.01745508644999004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02345809002208762</v>
+        <v>-0.01532392664578339</v>
       </c>
       <c r="C24">
-        <v>0.0003834228395962721</v>
+        <v>0.04277347678332479</v>
       </c>
       <c r="D24">
-        <v>0.03256808330863798</v>
+        <v>-0.005030879931099678</v>
       </c>
       <c r="E24">
-        <v>-0.0003290135813296708</v>
+        <v>0.01068997301295051</v>
       </c>
       <c r="F24">
-        <v>0.01729682344158657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02823797475282277</v>
+      </c>
+      <c r="G24">
+        <v>-0.003708529490557782</v>
+      </c>
+      <c r="H24">
+        <v>0.01363173240292126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0352740802323171</v>
+        <v>-0.0313090004143699</v>
       </c>
       <c r="C25">
-        <v>-0.000895251029071232</v>
+        <v>0.05210691374781075</v>
       </c>
       <c r="D25">
-        <v>0.03423897996237539</v>
+        <v>-0.008545271386325737</v>
       </c>
       <c r="E25">
-        <v>0.008700771778988798</v>
+        <v>0.01673765405350192</v>
       </c>
       <c r="F25">
-        <v>0.0325255778516749</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02524253067697136</v>
+      </c>
+      <c r="G25">
+        <v>-0.01313373101083084</v>
+      </c>
+      <c r="H25">
+        <v>0.004720641629922279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.003953950952261393</v>
+        <v>1.031450601496996e-06</v>
       </c>
       <c r="C26">
-        <v>0.008550117910025684</v>
+        <v>0.004546581984305073</v>
       </c>
       <c r="D26">
-        <v>0.00900787520325395</v>
+        <v>-0.02325043932265151</v>
       </c>
       <c r="E26">
-        <v>0.02853226390250215</v>
+        <v>0.003274731632427307</v>
       </c>
       <c r="F26">
-        <v>0.02937408804819903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01067773817183966</v>
+      </c>
+      <c r="G26">
+        <v>-0.01932327136231997</v>
+      </c>
+      <c r="H26">
+        <v>0.0086067904661742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.001033876025450128</v>
+        <v>-0.0008501070440308563</v>
       </c>
       <c r="C27">
-        <v>0.0003103983236004693</v>
+        <v>-0.0009658012584702203</v>
       </c>
       <c r="D27">
-        <v>-0.007018354029828217</v>
+        <v>0.0007331490230680544</v>
       </c>
       <c r="E27">
-        <v>-0.01346385139455506</v>
+        <v>-8.790023616026006e-05</v>
       </c>
       <c r="F27">
-        <v>0.01602553219339246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.001063463372716308</v>
+      </c>
+      <c r="G27">
+        <v>-0.004920924709071139</v>
+      </c>
+      <c r="H27">
+        <v>-0.009413261830214504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09422096573208318</v>
+        <v>-0.1536525459132886</v>
       </c>
       <c r="C28">
-        <v>-0.01399109622955676</v>
+        <v>-0.2034158145230917</v>
       </c>
       <c r="D28">
-        <v>-0.2273542550505235</v>
+        <v>0.01351200975441325</v>
       </c>
       <c r="E28">
-        <v>0.06886358650739156</v>
+        <v>-0.02045239900637062</v>
       </c>
       <c r="F28">
-        <v>-0.01397161682235657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.007254646606805734</v>
+      </c>
+      <c r="G28">
+        <v>-0.03439347547980371</v>
+      </c>
+      <c r="H28">
+        <v>0.03810310002365571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01301823270014681</v>
+        <v>-0.006333720984156081</v>
       </c>
       <c r="C29">
-        <v>0.01116198331050537</v>
+        <v>0.0171050636414982</v>
       </c>
       <c r="D29">
-        <v>0.007705225932706075</v>
+        <v>-0.006653822367529377</v>
       </c>
       <c r="E29">
-        <v>-0.0009118548957775728</v>
+        <v>0.00610122277134103</v>
       </c>
       <c r="F29">
-        <v>0.04665308875635898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.004578420884237037</v>
+      </c>
+      <c r="G29">
+        <v>-0.02898645437785007</v>
+      </c>
+      <c r="H29">
+        <v>-0.005381485340171251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03461737244930378</v>
+        <v>-0.03213810225075493</v>
       </c>
       <c r="C30">
-        <v>-0.04812959091939639</v>
+        <v>0.08090735916763131</v>
       </c>
       <c r="D30">
-        <v>0.05622891113113355</v>
+        <v>-0.02390755278820451</v>
       </c>
       <c r="E30">
-        <v>0.0142415976687564</v>
+        <v>-0.002131859599079962</v>
       </c>
       <c r="F30">
-        <v>0.09126055151867499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04843740527492022</v>
+      </c>
+      <c r="G30">
+        <v>0.01080545862398898</v>
+      </c>
+      <c r="H30">
+        <v>-0.03049663394882627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0438367003623795</v>
+        <v>-0.03263828664261382</v>
       </c>
       <c r="C31">
-        <v>0.01095079587715167</v>
+        <v>0.02111910218346466</v>
       </c>
       <c r="D31">
-        <v>0.01713657015883102</v>
+        <v>-0.001489844696634997</v>
       </c>
       <c r="E31">
-        <v>-0.008777862746558642</v>
+        <v>0.009204552180583954</v>
       </c>
       <c r="F31">
-        <v>0.02834152445552912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01521829675187479</v>
+      </c>
+      <c r="G31">
+        <v>-0.02173718633784473</v>
+      </c>
+      <c r="H31">
+        <v>0.005740233360742911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002824714178378786</v>
+        <v>-0.002164618799556377</v>
       </c>
       <c r="C32">
-        <v>0.02822933478095945</v>
+        <v>0.02869640823168651</v>
       </c>
       <c r="D32">
-        <v>0.02546434735563365</v>
+        <v>0.006446614281912144</v>
       </c>
       <c r="E32">
-        <v>-0.009948311198352877</v>
+        <v>-0.001281925590569941</v>
       </c>
       <c r="F32">
-        <v>0.0585688588350187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.09453108900769606</v>
+      </c>
+      <c r="G32">
+        <v>-0.04348580833386544</v>
+      </c>
+      <c r="H32">
+        <v>-0.008873056793385204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03136941200517286</v>
+        <v>-0.0202279938782131</v>
       </c>
       <c r="C33">
-        <v>-0.01858712814030661</v>
+        <v>0.04930724655181373</v>
       </c>
       <c r="D33">
-        <v>0.03739636441661496</v>
+        <v>-0.01208941402070783</v>
       </c>
       <c r="E33">
-        <v>0.0218402187232965</v>
+        <v>-0.009464517109476324</v>
       </c>
       <c r="F33">
-        <v>0.04890058245631451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03297574516308685</v>
+      </c>
+      <c r="G33">
+        <v>-0.003242666526246926</v>
+      </c>
+      <c r="H33">
+        <v>0.01666897042961631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02415245308812792</v>
+        <v>-0.03133632882873606</v>
       </c>
       <c r="C34">
-        <v>0.0102046952062558</v>
+        <v>0.05432178733621747</v>
       </c>
       <c r="D34">
-        <v>0.0422732013038584</v>
+        <v>0.007522493869169285</v>
       </c>
       <c r="E34">
-        <v>-0.00269956092008639</v>
+        <v>0.0201808260370958</v>
       </c>
       <c r="F34">
-        <v>0.02712797560952236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02897628193009785</v>
+      </c>
+      <c r="G34">
+        <v>-0.0170481955860278</v>
+      </c>
+      <c r="H34">
+        <v>0.01026789711009418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01078657922823154</v>
+        <v>-0.007270292011655246</v>
       </c>
       <c r="C36">
-        <v>0.005764937655579385</v>
+        <v>-0.0002069319821341635</v>
       </c>
       <c r="D36">
-        <v>0.002505659591248239</v>
+        <v>-0.01030104473102693</v>
       </c>
       <c r="E36">
-        <v>0.008376743460936599</v>
+        <v>0.0005410549383797036</v>
       </c>
       <c r="F36">
-        <v>0.02304446958716352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007878135406933657</v>
+      </c>
+      <c r="G36">
+        <v>-0.01130734654938126</v>
+      </c>
+      <c r="H36">
+        <v>0.01033091864743628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01835206189018006</v>
+        <v>-0.02410039480427217</v>
       </c>
       <c r="C38">
-        <v>-0.003179958088519688</v>
+        <v>0.01798507364219566</v>
       </c>
       <c r="D38">
-        <v>0.004492072064160071</v>
+        <v>0.009347421920150999</v>
       </c>
       <c r="E38">
-        <v>0.02981163558165628</v>
+        <v>0.002678125296505307</v>
       </c>
       <c r="F38">
-        <v>0.04504140509144527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01427992151229533</v>
+      </c>
+      <c r="G38">
+        <v>-0.01596356212721619</v>
+      </c>
+      <c r="H38">
+        <v>0.003845530383297863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01833275431890957</v>
+        <v>-0.01242671519536664</v>
       </c>
       <c r="C39">
-        <v>0.008695472622110964</v>
+        <v>0.08284406060785271</v>
       </c>
       <c r="D39">
-        <v>0.06019606657686584</v>
+        <v>-0.01040558232603567</v>
       </c>
       <c r="E39">
-        <v>0.01532559914786192</v>
+        <v>0.003452675910342018</v>
       </c>
       <c r="F39">
-        <v>0.0518830490388667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04860878096771984</v>
+      </c>
+      <c r="G39">
+        <v>-0.005277407952779188</v>
+      </c>
+      <c r="H39">
+        <v>0.01874146961285108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02328720669020609</v>
+        <v>-0.01749245370308302</v>
       </c>
       <c r="C40">
-        <v>-0.002919498040639323</v>
+        <v>0.02977306388789383</v>
       </c>
       <c r="D40">
-        <v>0.03909931750694301</v>
+        <v>-0.01079792487818504</v>
       </c>
       <c r="E40">
-        <v>0.01546332496023214</v>
+        <v>0.0002756920791695696</v>
       </c>
       <c r="F40">
-        <v>0.01735412696701628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02950269796200477</v>
+      </c>
+      <c r="G40">
+        <v>-0.005667036858067172</v>
+      </c>
+      <c r="H40">
+        <v>0.01304953853397848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00940476311653086</v>
+        <v>-0.01070267023788126</v>
       </c>
       <c r="C41">
-        <v>-0.001381981257972839</v>
+        <v>-0.007635133095229236</v>
       </c>
       <c r="D41">
-        <v>-0.01233902919556333</v>
+        <v>-0.002666779745140852</v>
       </c>
       <c r="E41">
-        <v>0.0116244561523723</v>
+        <v>0.005172506996820453</v>
       </c>
       <c r="F41">
-        <v>0.002236309386685212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004926950504693639</v>
+      </c>
+      <c r="G41">
+        <v>-0.004901327006199145</v>
+      </c>
+      <c r="H41">
+        <v>0.00890383759944826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2196621701075221</v>
+        <v>-0.04528409258680145</v>
       </c>
       <c r="C42">
-        <v>-0.1489564614058095</v>
+        <v>0.1036146898318741</v>
       </c>
       <c r="D42">
-        <v>0.2538613500960496</v>
+        <v>-0.1167777315745092</v>
       </c>
       <c r="E42">
-        <v>0.6145439029173003</v>
+        <v>-0.1105993721810039</v>
       </c>
       <c r="F42">
-        <v>-0.6451301010918399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3293097960234939</v>
+      </c>
+      <c r="G42">
+        <v>0.4766538042817959</v>
+      </c>
+      <c r="H42">
+        <v>0.7727923964709622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01390205875659683</v>
+        <v>-0.02243796751841708</v>
       </c>
       <c r="C43">
-        <v>-0.004549743134107695</v>
+        <v>0.001216649242125177</v>
       </c>
       <c r="D43">
-        <v>-0.008699780970555739</v>
+        <v>-0.002218671713726864</v>
       </c>
       <c r="E43">
-        <v>0.01556977332039642</v>
+        <v>0.002594730131983813</v>
       </c>
       <c r="F43">
-        <v>0.009693053033710189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01273845246724458</v>
+      </c>
+      <c r="G43">
+        <v>-0.002872897690288101</v>
+      </c>
+      <c r="H43">
+        <v>0.01209904569690915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.006478650899804578</v>
+        <v>-0.006737025683363362</v>
       </c>
       <c r="C44">
-        <v>0.01200143143743462</v>
+        <v>0.04669203603921228</v>
       </c>
       <c r="D44">
-        <v>0.01680220038787507</v>
+        <v>-0.005655162858388796</v>
       </c>
       <c r="E44">
-        <v>0.0349651825872131</v>
+        <v>-0.009334691581561555</v>
       </c>
       <c r="F44">
-        <v>0.06748599393455734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03447948258505427</v>
+      </c>
+      <c r="G44">
+        <v>-0.02204777480377901</v>
+      </c>
+      <c r="H44">
+        <v>0.02398103672487002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01248803434055786</v>
+        <v>0.002183952510100722</v>
       </c>
       <c r="C46">
-        <v>0.002361543467159421</v>
+        <v>0.009130345932219956</v>
       </c>
       <c r="D46">
-        <v>0.03532146230606301</v>
+        <v>-0.01117968545270672</v>
       </c>
       <c r="E46">
-        <v>0.008789486558444254</v>
+        <v>-0.0007329691304526235</v>
       </c>
       <c r="F46">
-        <v>0.071982177147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.005645176382649008</v>
+      </c>
+      <c r="G46">
+        <v>-0.01894546081172635</v>
+      </c>
+      <c r="H46">
+        <v>-0.002858072941876014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06740046751869642</v>
+        <v>-0.05364960551829221</v>
       </c>
       <c r="C47">
-        <v>-0.005347648006307319</v>
+        <v>0.05484518571685427</v>
       </c>
       <c r="D47">
-        <v>0.017640386867982</v>
+        <v>0.006688500739577091</v>
       </c>
       <c r="E47">
-        <v>-0.03151209647276149</v>
+        <v>0.008482469510173831</v>
       </c>
       <c r="F47">
-        <v>-0.00122167644151846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04558559597905547</v>
+      </c>
+      <c r="G47">
+        <v>-0.02014171218307277</v>
+      </c>
+      <c r="H47">
+        <v>-0.007711155899422257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02078556946711825</v>
+        <v>-0.009319483789130421</v>
       </c>
       <c r="C48">
-        <v>0.004471849082132944</v>
+        <v>0.004468011613073727</v>
       </c>
       <c r="D48">
-        <v>0.006594181671363079</v>
+        <v>-0.0004249339538954864</v>
       </c>
       <c r="E48">
-        <v>0.006452891580256997</v>
+        <v>0.001802406043502802</v>
       </c>
       <c r="F48">
-        <v>0.02742008902374602</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.003024672193265572</v>
+      </c>
+      <c r="G48">
+        <v>-0.01590818077147393</v>
+      </c>
+      <c r="H48">
+        <v>0.005657578514830016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07785056801400544</v>
+        <v>-0.05540194307674589</v>
       </c>
       <c r="C50">
-        <v>0.02283019134891299</v>
+        <v>0.05485188789065501</v>
       </c>
       <c r="D50">
-        <v>0.03894912286102653</v>
+        <v>0.005313799125763835</v>
       </c>
       <c r="E50">
-        <v>-0.01012048511307758</v>
+        <v>0.009744340520515265</v>
       </c>
       <c r="F50">
-        <v>0.02704050886512555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04348008265251183</v>
+      </c>
+      <c r="G50">
+        <v>-0.0449548837230006</v>
+      </c>
+      <c r="H50">
+        <v>0.007654994935075536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007460188699685513</v>
+        <v>-0.007560062897033244</v>
       </c>
       <c r="C51">
-        <v>0.007585732015105533</v>
+        <v>0.02164544049690028</v>
       </c>
       <c r="D51">
-        <v>-0.01466744586985548</v>
+        <v>-0.007863246188947711</v>
       </c>
       <c r="E51">
-        <v>0.04202481736215298</v>
+        <v>0.002821661516191498</v>
       </c>
       <c r="F51">
-        <v>0.06454972318580081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0423737376814934</v>
+      </c>
+      <c r="G51">
+        <v>-0.02342675052414798</v>
+      </c>
+      <c r="H51">
+        <v>0.02494908118040723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1007223576025701</v>
+        <v>-0.0786054728634972</v>
       </c>
       <c r="C53">
-        <v>0.005510363770285979</v>
+        <v>0.0812308599006208</v>
       </c>
       <c r="D53">
-        <v>0.04753365484933437</v>
+        <v>0.007930481704040109</v>
       </c>
       <c r="E53">
-        <v>-0.06002764160081398</v>
+        <v>0.03323989257905601</v>
       </c>
       <c r="F53">
-        <v>-0.007869229636128671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06535787504283794</v>
+      </c>
+      <c r="G53">
+        <v>-0.02187746654850237</v>
+      </c>
+      <c r="H53">
+        <v>-0.00729747385963553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02377202147788283</v>
+        <v>-0.02223579144970468</v>
       </c>
       <c r="C54">
-        <v>0.008670542521949629</v>
+        <v>-0.00186029599834277</v>
       </c>
       <c r="D54">
-        <v>-0.002912239414845458</v>
+        <v>0.005332295376097471</v>
       </c>
       <c r="E54">
-        <v>-0.01370669824377486</v>
+        <v>-0.001649725618209699</v>
       </c>
       <c r="F54">
-        <v>0.0349845129956913</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01191335183053559</v>
+      </c>
+      <c r="G54">
+        <v>-0.02414116851518414</v>
+      </c>
+      <c r="H54">
+        <v>0.001787260360807822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07498407024436633</v>
+        <v>-0.05324357804973612</v>
       </c>
       <c r="C55">
-        <v>-0.0005944168557505718</v>
+        <v>0.06837951221722351</v>
       </c>
       <c r="D55">
-        <v>0.0641802952336662</v>
+        <v>0.005846006071879852</v>
       </c>
       <c r="E55">
-        <v>-0.0372044642263564</v>
+        <v>0.02106840941511571</v>
       </c>
       <c r="F55">
-        <v>-0.01014615534477687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05626006924340625</v>
+      </c>
+      <c r="G55">
+        <v>-0.01190041217182171</v>
+      </c>
+      <c r="H55">
+        <v>-0.006037391412217596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1436669488605761</v>
+        <v>-0.1137386594148742</v>
       </c>
       <c r="C56">
-        <v>-0.003374880063530848</v>
+        <v>0.1148990130406137</v>
       </c>
       <c r="D56">
-        <v>0.06590959797632588</v>
+        <v>0.01615766169745977</v>
       </c>
       <c r="E56">
-        <v>-0.08323600149425329</v>
+        <v>0.03365838982496547</v>
       </c>
       <c r="F56">
-        <v>-0.03810617385277844</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1056744947905732</v>
+      </c>
+      <c r="G56">
+        <v>-0.01255438968008286</v>
+      </c>
+      <c r="H56">
+        <v>-0.02643780485690645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03213735023618281</v>
+        <v>-0.01516203726322743</v>
       </c>
       <c r="C57">
-        <v>-0.008724692792912356</v>
+        <v>0.01721196224007084</v>
       </c>
       <c r="D57">
-        <v>0.01696814670484205</v>
+        <v>-0.02329512004110857</v>
       </c>
       <c r="E57">
-        <v>0.04338587919735056</v>
+        <v>-0.0299688029850772</v>
       </c>
       <c r="F57">
-        <v>0.03230531223107847</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02977548896614102</v>
+      </c>
+      <c r="G57">
+        <v>-0.01938673091947384</v>
+      </c>
+      <c r="H57">
+        <v>0.0130235196295714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.192458251199879</v>
+        <v>-0.07389721404012223</v>
       </c>
       <c r="C58">
-        <v>-0.1332879565308432</v>
+        <v>0.1407345128364006</v>
       </c>
       <c r="D58">
-        <v>0.1558098888647073</v>
+        <v>-0.01425369383114172</v>
       </c>
       <c r="E58">
-        <v>0.4035491125274169</v>
+        <v>-0.9636079835821653</v>
       </c>
       <c r="F58">
-        <v>0.5487792055243348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.02325917565000632</v>
+      </c>
+      <c r="G58">
+        <v>-0.09978875124489793</v>
+      </c>
+      <c r="H58">
+        <v>-0.1082227593816755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.09002977992925632</v>
+        <v>-0.1824696387423373</v>
       </c>
       <c r="C59">
-        <v>-0.03305752414225886</v>
+        <v>-0.189244214194132</v>
       </c>
       <c r="D59">
-        <v>-0.191752957929354</v>
+        <v>0.02144914495730331</v>
       </c>
       <c r="E59">
-        <v>0.05290898641481635</v>
+        <v>-0.01523115809694725</v>
       </c>
       <c r="F59">
-        <v>0.03652130760599793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01596101641529602</v>
+      </c>
+      <c r="G59">
+        <v>-0.01587558424674629</v>
+      </c>
+      <c r="H59">
+        <v>0.01119814444081112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.19543973220511</v>
+        <v>-0.2954201960489364</v>
       </c>
       <c r="C60">
-        <v>-0.0455384092034461</v>
+        <v>0.1306137280560318</v>
       </c>
       <c r="D60">
-        <v>-0.01514851393720731</v>
+        <v>0.005947494616662679</v>
       </c>
       <c r="E60">
-        <v>0.08991755441565623</v>
+        <v>0.06092487486976318</v>
       </c>
       <c r="F60">
-        <v>0.1001514306251218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3738123507564507</v>
+      </c>
+      <c r="G60">
+        <v>0.0854068353088045</v>
+      </c>
+      <c r="H60">
+        <v>0.0377472224345994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02476966397324962</v>
+        <v>-0.01876365747513888</v>
       </c>
       <c r="C61">
-        <v>0.002480515595429568</v>
+        <v>0.06613524778132691</v>
       </c>
       <c r="D61">
-        <v>0.04854876583741844</v>
+        <v>-0.003518765712395673</v>
       </c>
       <c r="E61">
-        <v>0.009156041538448611</v>
+        <v>0.006759579984132525</v>
       </c>
       <c r="F61">
-        <v>0.02659845400991092</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03551867350589138</v>
+      </c>
+      <c r="G61">
+        <v>-0.01022659513274206</v>
+      </c>
+      <c r="H61">
+        <v>0.008852916054142257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01336839800707521</v>
+        <v>-0.00678011184690837</v>
       </c>
       <c r="C63">
-        <v>0.006349585687786812</v>
+        <v>0.02802149628944784</v>
       </c>
       <c r="D63">
-        <v>0.02224450877258098</v>
+        <v>-0.007243795491195943</v>
       </c>
       <c r="E63">
-        <v>0.0001503190113122217</v>
+        <v>0.01383544211321392</v>
       </c>
       <c r="F63">
-        <v>0.01198211883286726</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0002622449022903491</v>
+      </c>
+      <c r="G63">
+        <v>-0.02129671729268911</v>
+      </c>
+      <c r="H63">
+        <v>0.0005538205447454351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04192170392586527</v>
+        <v>-0.04058275366968856</v>
       </c>
       <c r="C64">
-        <v>0.001717814875670421</v>
+        <v>0.03881933734253599</v>
       </c>
       <c r="D64">
-        <v>0.02937517182329552</v>
+        <v>-0.002498195641439026</v>
       </c>
       <c r="E64">
-        <v>0.002339304455190221</v>
+        <v>0.01831455478699794</v>
       </c>
       <c r="F64">
-        <v>0.02215377314116382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01512959232397383</v>
+      </c>
+      <c r="G64">
+        <v>-0.0009537385383801932</v>
+      </c>
+      <c r="H64">
+        <v>0.02484022470868262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05615132993387197</v>
+        <v>-0.06197782238148945</v>
       </c>
       <c r="C65">
-        <v>0.005651367592349661</v>
+        <v>0.08172456726479609</v>
       </c>
       <c r="D65">
-        <v>0.04540018477970626</v>
+        <v>-0.01294345457878014</v>
       </c>
       <c r="E65">
-        <v>0.0004584475424680245</v>
+        <v>0.01607809574920046</v>
       </c>
       <c r="F65">
-        <v>0.03790969230624582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02961290757392796</v>
+      </c>
+      <c r="G65">
+        <v>-0.01089040060698179</v>
+      </c>
+      <c r="H65">
+        <v>-0.0103213335459913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04117105964245457</v>
+        <v>-0.02878588370891702</v>
       </c>
       <c r="C66">
-        <v>-0.009717294887696289</v>
+        <v>0.1230123458379205</v>
       </c>
       <c r="D66">
-        <v>0.07130884122318305</v>
+        <v>-0.008444693724723878</v>
       </c>
       <c r="E66">
-        <v>-0.02375048023827949</v>
+        <v>0.007253372380155074</v>
       </c>
       <c r="F66">
-        <v>0.07190814260048867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06129098508611081</v>
+      </c>
+      <c r="G66">
+        <v>-0.004231519767369647</v>
+      </c>
+      <c r="H66">
+        <v>-0.01020879081991698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03200470752533285</v>
+        <v>-0.04628290063999287</v>
       </c>
       <c r="C67">
-        <v>-0.00709895527922748</v>
+        <v>0.02658627562833294</v>
       </c>
       <c r="D67">
-        <v>-0.002033456831330173</v>
+        <v>0.008299453530227213</v>
       </c>
       <c r="E67">
-        <v>0.01237603378744325</v>
+        <v>0.009185805798441301</v>
       </c>
       <c r="F67">
-        <v>0.03496315033896968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01307386070401695</v>
+      </c>
+      <c r="G67">
+        <v>-0.01865956260124695</v>
+      </c>
+      <c r="H67">
+        <v>-0.002851153710657532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09275039807248292</v>
+        <v>-0.1741206857062904</v>
       </c>
       <c r="C68">
-        <v>-0.03461953332148955</v>
+        <v>-0.2313089631406017</v>
       </c>
       <c r="D68">
-        <v>-0.2227402344065526</v>
+        <v>0.002684350149323278</v>
       </c>
       <c r="E68">
-        <v>0.05026705915636899</v>
+        <v>-0.02658226941918364</v>
       </c>
       <c r="F68">
-        <v>0.002008212618904215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01728213791097405</v>
+      </c>
+      <c r="G68">
+        <v>-0.01321910592809105</v>
+      </c>
+      <c r="H68">
+        <v>0.02384276727805761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05372174010217271</v>
+        <v>-0.05526400869920391</v>
       </c>
       <c r="C69">
-        <v>-0.003966301027914686</v>
+        <v>0.05401893096975326</v>
       </c>
       <c r="D69">
-        <v>0.02822062751441668</v>
+        <v>0.01104048384196796</v>
       </c>
       <c r="E69">
-        <v>-0.0289514655707758</v>
+        <v>0.02786657248437857</v>
       </c>
       <c r="F69">
-        <v>0.01326858533358202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01890842132905881</v>
+      </c>
+      <c r="G69">
+        <v>-0.0153849850109452</v>
+      </c>
+      <c r="H69">
+        <v>-0.008169523832285022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08606968157508338</v>
+        <v>-0.1578093717813256</v>
       </c>
       <c r="C71">
-        <v>-0.02008252222349543</v>
+        <v>-0.1992539698225255</v>
       </c>
       <c r="D71">
-        <v>-0.218311656880509</v>
+        <v>0.009422514736007937</v>
       </c>
       <c r="E71">
-        <v>0.09142365622840319</v>
+        <v>-0.03957840227808807</v>
       </c>
       <c r="F71">
-        <v>-0.03364977419304872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.01958311971925878</v>
+      </c>
+      <c r="G71">
+        <v>-0.01999022337098765</v>
+      </c>
+      <c r="H71">
+        <v>0.05028939978880225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1045174073092926</v>
+        <v>-0.07084868998121258</v>
       </c>
       <c r="C72">
-        <v>-0.007059591001805227</v>
+        <v>0.09439110582931896</v>
       </c>
       <c r="D72">
-        <v>0.110747260391488</v>
+        <v>0.01328312774259814</v>
       </c>
       <c r="E72">
-        <v>-0.005776168651771705</v>
+        <v>0.03088781759026753</v>
       </c>
       <c r="F72">
-        <v>0.1593686358036177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04038096662968938</v>
+      </c>
+      <c r="G72">
+        <v>-0.004100963107466775</v>
+      </c>
+      <c r="H72">
+        <v>-0.02695998403267845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2355806370937092</v>
+        <v>-0.3853890961656647</v>
       </c>
       <c r="C73">
-        <v>-0.1033032013702539</v>
+        <v>0.1972608109338831</v>
       </c>
       <c r="D73">
-        <v>0.01824897264089675</v>
+        <v>0.001886584834532367</v>
       </c>
       <c r="E73">
-        <v>0.1559089422998612</v>
+        <v>0.04310413269852646</v>
       </c>
       <c r="F73">
-        <v>0.1035811411574812</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.4845025365588609</v>
+      </c>
+      <c r="G73">
+        <v>0.142390056511681</v>
+      </c>
+      <c r="H73">
+        <v>0.09706473462739869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1331905862562946</v>
+        <v>-0.1004440654788325</v>
       </c>
       <c r="C74">
-        <v>-0.01135600142642271</v>
+        <v>0.1225913764539187</v>
       </c>
       <c r="D74">
-        <v>0.06491583033282947</v>
+        <v>0.01403534259375071</v>
       </c>
       <c r="E74">
-        <v>-0.07469602406872447</v>
+        <v>0.03610569064831994</v>
       </c>
       <c r="F74">
-        <v>-0.02948793416623483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08495210772901549</v>
+      </c>
+      <c r="G74">
+        <v>-0.02382278532624011</v>
+      </c>
+      <c r="H74">
+        <v>-0.0122299647053001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2656267202242144</v>
+        <v>-0.2202229806449018</v>
       </c>
       <c r="C75">
-        <v>-0.03094511778383</v>
+        <v>0.1845260737920485</v>
       </c>
       <c r="D75">
-        <v>0.09019552843951377</v>
+        <v>0.03486816355706292</v>
       </c>
       <c r="E75">
-        <v>-0.17423585217148</v>
+        <v>0.04239432395520162</v>
       </c>
       <c r="F75">
-        <v>-0.01809387211386463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.219578496562894</v>
+      </c>
+      <c r="G75">
+        <v>-0.01575728092705417</v>
+      </c>
+      <c r="H75">
+        <v>-0.08071626531313413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2706830748301003</v>
+        <v>-0.1407841093220341</v>
       </c>
       <c r="C76">
-        <v>-0.01039285275756139</v>
+        <v>0.1512757771211622</v>
       </c>
       <c r="D76">
-        <v>0.1100116851493523</v>
+        <v>0.02847564700201905</v>
       </c>
       <c r="E76">
-        <v>-0.2258063187455525</v>
+        <v>0.06376688177979914</v>
       </c>
       <c r="F76">
-        <v>-0.06636697079191271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1870283243794069</v>
+      </c>
+      <c r="G76">
+        <v>-0.03573971317499868</v>
+      </c>
+      <c r="H76">
+        <v>-0.05962867810549262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07945256815413476</v>
+        <v>-0.044583087418428</v>
       </c>
       <c r="C77">
-        <v>-0.01085890395731636</v>
+        <v>0.07227559928629493</v>
       </c>
       <c r="D77">
-        <v>0.07124196991595637</v>
+        <v>-0.0117554161885601</v>
       </c>
       <c r="E77">
-        <v>0.1069915224058597</v>
+        <v>-0.02888969160843329</v>
       </c>
       <c r="F77">
-        <v>0.0211960870058873</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01300448487212255</v>
+      </c>
+      <c r="G77">
+        <v>-0.01877275444912128</v>
+      </c>
+      <c r="H77">
+        <v>0.03562328484063972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03322094803690771</v>
+        <v>-0.03057550286179719</v>
       </c>
       <c r="C78">
-        <v>0.004763927852733895</v>
+        <v>0.05981438861766062</v>
       </c>
       <c r="D78">
-        <v>0.05676845893560954</v>
+        <v>-0.003876928916961779</v>
       </c>
       <c r="E78">
-        <v>0.02359910090928867</v>
+        <v>-0.004352991445743326</v>
       </c>
       <c r="F78">
-        <v>0.06923124568647185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0461721888619911</v>
+      </c>
+      <c r="G78">
+        <v>-0.01359120403639482</v>
+      </c>
+      <c r="H78">
+        <v>0.003818450210398357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2359564502347444</v>
+        <v>-0.06298651545401641</v>
       </c>
       <c r="C80">
-        <v>0.9438309973024397</v>
+        <v>0.08725127759235017</v>
       </c>
       <c r="D80">
-        <v>-0.05445242417778356</v>
+        <v>-0.009026204573264036</v>
       </c>
       <c r="E80">
-        <v>0.1442081581702604</v>
+        <v>0.06625542705230505</v>
       </c>
       <c r="F80">
-        <v>-0.02081861603574376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03856125291509662</v>
+      </c>
+      <c r="G80">
+        <v>-0.8263855634120031</v>
+      </c>
+      <c r="H80">
+        <v>0.4764284138842809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2067230068589561</v>
+        <v>-0.1341683831726552</v>
       </c>
       <c r="C81">
-        <v>-0.01343756814658559</v>
+        <v>0.1052725476776211</v>
       </c>
       <c r="D81">
-        <v>0.05693609143828156</v>
+        <v>0.02136279964456681</v>
       </c>
       <c r="E81">
-        <v>-0.1428273918940132</v>
+        <v>0.02380137701167086</v>
       </c>
       <c r="F81">
-        <v>0.005096830666884842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1433997864854952</v>
+      </c>
+      <c r="G81">
+        <v>-0.02896623351224315</v>
+      </c>
+      <c r="H81">
+        <v>-0.04151628255612563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02045176074923485</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01502851910698373</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001932143292367799</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01433691660411068</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01218127723504182</v>
+      </c>
+      <c r="G82">
+        <v>0.002509464149206825</v>
+      </c>
+      <c r="H82">
+        <v>-0.005233157550112792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03105684709281485</v>
+        <v>-0.02228581234851559</v>
       </c>
       <c r="C83">
-        <v>-0.006456938772094111</v>
+        <v>0.02084034053946526</v>
       </c>
       <c r="D83">
-        <v>0.0122608934418146</v>
+        <v>-0.004340506274283147</v>
       </c>
       <c r="E83">
-        <v>0.03785201449194476</v>
+        <v>-0.01562523971229326</v>
       </c>
       <c r="F83">
-        <v>0.03337156349497424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03302741828929585</v>
+      </c>
+      <c r="G83">
+        <v>-0.01627653400122888</v>
+      </c>
+      <c r="H83">
+        <v>0.01381444816229272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2551159549281085</v>
+        <v>-0.2093611773713019</v>
       </c>
       <c r="C85">
-        <v>-0.03861795523403359</v>
+        <v>0.1980348582174363</v>
       </c>
       <c r="D85">
-        <v>0.1158663091127217</v>
+        <v>0.02346316565439957</v>
       </c>
       <c r="E85">
-        <v>-0.1960813359453956</v>
+        <v>0.07515370399194053</v>
       </c>
       <c r="F85">
-        <v>-0.03880737722894459</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2224186585644426</v>
+      </c>
+      <c r="G85">
+        <v>0.02311283306851572</v>
+      </c>
+      <c r="H85">
+        <v>-0.1034178386027697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002119302202875221</v>
+        <v>-0.00522300369716281</v>
       </c>
       <c r="C86">
-        <v>0.01007518844079608</v>
+        <v>0.03141418914510674</v>
       </c>
       <c r="D86">
-        <v>0.04190769171281254</v>
+        <v>-0.008835410453175941</v>
       </c>
       <c r="E86">
-        <v>0.0306567495567501</v>
+        <v>-0.005935437896936798</v>
       </c>
       <c r="F86">
-        <v>0.07132521739366977</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02666671040096885</v>
+      </c>
+      <c r="G86">
+        <v>-0.03249475385629217</v>
+      </c>
+      <c r="H86">
+        <v>0.04234434265304204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03234068512244964</v>
+        <v>-0.004762333523021278</v>
       </c>
       <c r="C87">
-        <v>0.006445327484693737</v>
+        <v>0.03692999188070765</v>
       </c>
       <c r="D87">
-        <v>0.0423888165480411</v>
+        <v>-0.01021665746482224</v>
       </c>
       <c r="E87">
-        <v>0.05319051659231325</v>
+        <v>-0.04205593576085164</v>
       </c>
       <c r="F87">
-        <v>0.0859618304718518</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.05900173918958571</v>
+      </c>
+      <c r="G87">
+        <v>-0.02823638471210637</v>
+      </c>
+      <c r="H87">
+        <v>0.03137005498403809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04392957724639087</v>
+        <v>-0.06239732686738397</v>
       </c>
       <c r="C88">
-        <v>-0.007821506276385051</v>
+        <v>0.0424794445041163</v>
       </c>
       <c r="D88">
-        <v>-0.002821685840081088</v>
+        <v>-0.01885239693709537</v>
       </c>
       <c r="E88">
-        <v>-0.002816952137006965</v>
+        <v>0.01140001856391318</v>
       </c>
       <c r="F88">
-        <v>-0.007219379842386422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02817665638837161</v>
+      </c>
+      <c r="G88">
+        <v>-0.0127972085604674</v>
+      </c>
+      <c r="H88">
+        <v>-0.001941784280037035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1528752067981066</v>
+        <v>-0.2741972337535873</v>
       </c>
       <c r="C89">
-        <v>-0.0670486830252317</v>
+        <v>-0.3363370063917449</v>
       </c>
       <c r="D89">
-        <v>-0.371124611978716</v>
+        <v>0.01544744105224025</v>
       </c>
       <c r="E89">
-        <v>0.0222807993035854</v>
+        <v>-0.01129142520190957</v>
       </c>
       <c r="F89">
-        <v>0.03004292371114237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01457049948317262</v>
+      </c>
+      <c r="G89">
+        <v>-0.01069543337243424</v>
+      </c>
+      <c r="H89">
+        <v>-0.003135692542086252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09688519568653761</v>
+        <v>-0.2298782460622658</v>
       </c>
       <c r="C90">
-        <v>-0.06268104565559096</v>
+        <v>-0.3117923722222992</v>
       </c>
       <c r="D90">
-        <v>-0.3426762294866318</v>
+        <v>0.01606286912874656</v>
       </c>
       <c r="E90">
-        <v>0.02552053083466571</v>
+        <v>-0.02650793626158892</v>
       </c>
       <c r="F90">
-        <v>-0.02865626432714939</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04521541543006818</v>
+      </c>
+      <c r="G90">
+        <v>0.005989312099993791</v>
+      </c>
+      <c r="H90">
+        <v>0.001855447103428494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2953424073492184</v>
+        <v>-0.1884169608563879</v>
       </c>
       <c r="C91">
-        <v>-0.04139685219298118</v>
+        <v>0.1454174725880703</v>
       </c>
       <c r="D91">
-        <v>0.1248681781459183</v>
+        <v>0.03105256700130786</v>
       </c>
       <c r="E91">
-        <v>-0.2158137582917688</v>
+        <v>0.05864161674241024</v>
       </c>
       <c r="F91">
-        <v>-0.1174275660169048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2245709746858391</v>
+      </c>
+      <c r="G91">
+        <v>-0.01175897014440479</v>
+      </c>
+      <c r="H91">
+        <v>-0.06581235262017185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2203562172928602</v>
+        <v>-0.2496071830751559</v>
       </c>
       <c r="C92">
-        <v>-0.07319250954813555</v>
+        <v>-0.2375830229406295</v>
       </c>
       <c r="D92">
-        <v>-0.3745494709919311</v>
+        <v>0.05867305817055345</v>
       </c>
       <c r="E92">
-        <v>-0.0780780014312441</v>
+        <v>-0.03882995112919895</v>
       </c>
       <c r="F92">
-        <v>-0.03162577703410264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.127846477086293</v>
+      </c>
+      <c r="G92">
+        <v>-0.05671560795106505</v>
+      </c>
+      <c r="H92">
+        <v>-0.03209942933365521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1459205849846341</v>
+        <v>-0.2581814035762528</v>
       </c>
       <c r="C93">
-        <v>-0.08911486437232718</v>
+        <v>-0.2954715143620408</v>
       </c>
       <c r="D93">
-        <v>-0.3931381078101474</v>
+        <v>0.02386002224670803</v>
       </c>
       <c r="E93">
-        <v>0.06690136587854033</v>
+        <v>-0.03158442398381828</v>
       </c>
       <c r="F93">
-        <v>-0.06632351968178325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01853139356897079</v>
+      </c>
+      <c r="G93">
+        <v>0.01800683486484405</v>
+      </c>
+      <c r="H93">
+        <v>0.02994955350083464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3245563580230335</v>
+        <v>-0.2485418432987033</v>
       </c>
       <c r="C94">
-        <v>-0.07086281469744433</v>
+        <v>0.1845119984155897</v>
       </c>
       <c r="D94">
-        <v>0.08425364659818399</v>
+        <v>0.02006935965889682</v>
       </c>
       <c r="E94">
-        <v>-0.2534175257491853</v>
+        <v>0.07053267191305636</v>
       </c>
       <c r="F94">
-        <v>-0.001757130638907289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3418032588122406</v>
+      </c>
+      <c r="G94">
+        <v>0.01275384844895179</v>
+      </c>
+      <c r="H94">
+        <v>-0.279754222710764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05084566426099113</v>
+        <v>-0.06515760786167753</v>
       </c>
       <c r="C95">
-        <v>-0.07400426289148379</v>
+        <v>0.1201712547698759</v>
       </c>
       <c r="D95">
-        <v>0.02260234333001822</v>
+        <v>0.01128069433920057</v>
       </c>
       <c r="E95">
-        <v>-0.03551004585409451</v>
+        <v>-0.01886707465775424</v>
       </c>
       <c r="F95">
-        <v>0.05992833969125004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.09867898273566278</v>
+      </c>
+      <c r="G95">
+        <v>0.06700105083565414</v>
+      </c>
+      <c r="H95">
+        <v>-0.04282940432657725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.190093319198028</v>
+        <v>-0.2099421393410551</v>
       </c>
       <c r="C98">
-        <v>-0.06483973388097701</v>
+        <v>0.07964730998553378</v>
       </c>
       <c r="D98">
-        <v>-0.02842047147390843</v>
+        <v>0.02671657911899396</v>
       </c>
       <c r="E98">
-        <v>0.1514120910501607</v>
+        <v>-0.01673970337375255</v>
       </c>
       <c r="F98">
-        <v>0.1017018686073984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2504515762212499</v>
+      </c>
+      <c r="G98">
+        <v>0.07631008609916382</v>
+      </c>
+      <c r="H98">
+        <v>0.09218493140945788</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005605008674715185</v>
+        <v>-0.0008254148742254736</v>
       </c>
       <c r="C101">
-        <v>0.004862507337917657</v>
+        <v>0.01792506577512838</v>
       </c>
       <c r="D101">
-        <v>0.02681689051510688</v>
+        <v>-0.007516283509679839</v>
       </c>
       <c r="E101">
-        <v>0.06175956404019039</v>
+        <v>-0.03116668440783557</v>
       </c>
       <c r="F101">
-        <v>0.190435538916106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01398285076353441</v>
+      </c>
+      <c r="G101">
+        <v>-0.03908677378959091</v>
+      </c>
+      <c r="H101">
+        <v>-0.02073845029496243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1376578673263364</v>
+        <v>-0.1090858689664595</v>
       </c>
       <c r="C102">
-        <v>-0.01570758205970876</v>
+        <v>0.09133291288488259</v>
       </c>
       <c r="D102">
-        <v>0.04922412194691663</v>
+        <v>0.003516894647043677</v>
       </c>
       <c r="E102">
-        <v>-0.09747084581106302</v>
+        <v>0.04397336035002204</v>
       </c>
       <c r="F102">
-        <v>-0.05462787185457248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.08086067378130261</v>
+      </c>
+      <c r="G102">
+        <v>0.003513720754974609</v>
+      </c>
+      <c r="H102">
+        <v>-0.02638739992565068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0418165884828459</v>
+        <v>-0.008149522881739805</v>
       </c>
       <c r="C103">
-        <v>0.01386454172731038</v>
+        <v>0.008634340728099659</v>
       </c>
       <c r="D103">
-        <v>0.01812606325203087</v>
+        <v>0.0002668891477127382</v>
       </c>
       <c r="E103">
-        <v>-0.02017998280202087</v>
+        <v>0.000697406288556308</v>
       </c>
       <c r="F103">
-        <v>0.003923198805395488</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01558295010360914</v>
+      </c>
+      <c r="G103">
+        <v>-0.01639315905957376</v>
+      </c>
+      <c r="H103">
+        <v>0.005311967056688304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.07182849796469459</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.03852636313941317</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9835596532979587</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03510333232714277</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01088626704743582</v>
+      </c>
+      <c r="G104">
+        <v>-0.04417309669396666</v>
+      </c>
+      <c r="H104">
+        <v>-0.1119757344588407</v>
       </c>
     </row>
   </sheetData>
